--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\PHPTutorial\WWW\PSI-HK\doc\02 表结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21171774-F6F7-429C-8D9C-F32F21412486}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9D955-43DB-447D-A9EA-D71450279AB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="31" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31876,7 +31876,7 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:K11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.9" customHeight="1"/>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -11292,6 +11292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -11711,8 +11717,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -11790,9 +11796,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11814,21 +11819,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11836,22 +11841,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11873,16 +11885,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11899,21 +11920,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11947,7 +11953,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11959,19 +12043,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11983,7 +12091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11995,7 +12115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12007,127 +12127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12215,75 +12221,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12312,6 +12253,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12320,10 +12326,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12332,16 +12338,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12351,115 +12357,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -46281,8 +46287,8 @@
   <sheetPr/>
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -46561,7 +46567,7 @@
         <v>1034</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>308</v>
+        <v>1018</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -47236,7 +47242,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:11">
+    <row r="43" s="1" customFormat="1" ht="33" customHeight="1" spans="2:11">
       <c r="B43" s="10">
         <v>39</v>
       </c>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -11292,6 +11292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -11711,8 +11717,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -11790,9 +11796,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11814,21 +11819,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11836,22 +11841,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11873,16 +11885,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11899,21 +11920,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11947,7 +11953,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11959,19 +12043,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11983,7 +12091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11995,7 +12115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12007,127 +12127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12215,75 +12221,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12312,6 +12253,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12320,10 +12326,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12332,16 +12338,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12351,115 +12357,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -46281,8 +46287,8 @@
   <sheetPr/>
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -46561,7 +46567,7 @@
         <v>1034</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>308</v>
+        <v>1018</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -47236,7 +47242,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="28"/>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:11">
+    <row r="43" s="1" customFormat="1" ht="33" customHeight="1" spans="2:11">
       <c r="B43" s="10">
         <v>39</v>
       </c>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -11292,12 +11292,92 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：战略供应商/客户；2：核心供应商/分销大客户</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">    3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：稳定供应商/分销中小客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">               4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：行情投机供应商/客户</t>
+    </r>
+  </si>
+  <si>
+    <t>plan_quantity</t>
+  </si>
+  <si>
+    <t>计划量（月/年）</t>
+  </si>
+  <si>
+    <t>trade_period</t>
+  </si>
+  <si>
+    <t>交易周期</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>口碑和影响</t>
+  </si>
+  <si>
+    <t>interflow</t>
+  </si>
+  <si>
+    <t>近半年交流状况（访问次数/时间/访问人）</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>风险披露</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -11307,7 +11387,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>：战略供应商/客户；2：核心供应商/分销大客户</t>
+      <t>：信用违法；</t>
     </r>
     <r>
       <rPr>
@@ -11316,16 +11396,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：稳定供应商/分销中小客户</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2：盈利差；</t>
     </r>
     <r>
       <rPr>
@@ -11334,49 +11414,17 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">               4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：行情投机供应商/客户</t>
-    </r>
-  </si>
-  <si>
-    <t>plan_quantity</t>
-  </si>
-  <si>
-    <t>计划量（月/年）</t>
-  </si>
-  <si>
-    <t>trade_period</t>
-  </si>
-  <si>
-    <t>交易周期</t>
-  </si>
-  <si>
-    <t>influence</t>
-  </si>
-  <si>
-    <t>口碑和影响</t>
-  </si>
-  <si>
-    <t>interflow</t>
-  </si>
-  <si>
-    <t>近半年交流状况（访问次数/时间/访问人）</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>风险披露</t>
-  </si>
-  <si>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3：高负债；</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11384,16 +11432,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：信用违法；</t>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4：融资差</t>
     </r>
     <r>
       <rPr>
@@ -11402,6 +11450,24 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5：高库存；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
@@ -11411,7 +11477,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>2：盈利差；</t>
+      <t>6：地域环境；</t>
     </r>
     <r>
       <rPr>
@@ -11420,16 +11486,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3：高负债；</t>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7：对外担保</t>
     </r>
     <r>
       <rPr>
@@ -11438,16 +11504,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4：融资差</t>
+      <t xml:space="preserve">    8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：安全责任；</t>
     </r>
     <r>
       <rPr>
@@ -11456,16 +11522,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5：高库存；</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9：管理差：10：工商税务；</t>
     </r>
     <r>
       <rPr>
@@ -11474,16 +11540,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6：地域环境；</t>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：法务诉讼；12：政策法规</t>
     </r>
     <r>
       <rPr>
@@ -11492,16 +11558,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7：对外担保</t>
+      <t xml:space="preserve">  13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：负责人有不良习惯；</t>
     </r>
     <r>
       <rPr>
@@ -11510,16 +11576,48 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：安全责任；</t>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14：其他</t>
+    </r>
+  </si>
+  <si>
+    <t>risk_describe</t>
+  </si>
+  <si>
+    <t>风险描述</t>
+  </si>
+  <si>
+    <t>risk_keepaway</t>
+  </si>
+  <si>
+    <t>风险防范</t>
+  </si>
+  <si>
+    <t>table_status</t>
+  </si>
+  <si>
+    <t>表单状态</t>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作废；</t>
     </r>
     <r>
       <rPr>
@@ -11528,6 +11626,24 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000：基本情况填写并保存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -11537,7 +11653,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>9：管理差：10：工商税务；</t>
+      <t>2000：业务分析填写并保存</t>
     </r>
     <r>
       <rPr>
@@ -11546,16 +11662,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：法务诉讼；12：政策法规</t>
+      <t xml:space="preserve">             3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：风险披露填写保存</t>
     </r>
     <r>
       <rPr>
@@ -11564,126 +11680,16 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：负责人有不良习惯；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14：其他</t>
-    </r>
-  </si>
-  <si>
-    <t>risk_describe</t>
-  </si>
-  <si>
-    <t>风险描述</t>
-  </si>
-  <si>
-    <t>risk_keepaway</t>
-  </si>
-  <si>
-    <t>风险防范</t>
-  </si>
-  <si>
-    <t>table_status</t>
-  </si>
-  <si>
-    <t>表单状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作废；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1000：业务填写，未提交；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2000：业务提交，风控填写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：提交申请</t>
+      <t xml:space="preserve">   4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：提交</t>
     </r>
   </si>
   <si>
@@ -11790,6 +11796,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11797,7 +11842,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11819,91 +11886,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11920,6 +11903,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11953,7 +11959,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11965,25 +12085,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11995,145 +12133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12221,20 +12227,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12250,6 +12253,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12271,15 +12307,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -12289,32 +12316,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12326,10 +12332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12338,16 +12344,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12357,115 +12363,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -46287,8 +46293,8 @@
   <sheetPr/>
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -47332,7 +47338,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="28"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="33" customHeight="1" spans="2:11">
+    <row r="47" s="1" customFormat="1" ht="52" customHeight="1" spans="2:11">
       <c r="B47" s="10">
         <v>43</v>
       </c>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="51" activeTab="58"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="一览表" sheetId="2" r:id="rId1"/>
@@ -11817,10 +11817,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -11892,12 +11892,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -11906,9 +11907,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11920,14 +11937,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -11949,18 +11966,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11972,42 +11982,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12019,9 +12011,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12055,13 +12055,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12073,13 +12133,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12091,13 +12193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12109,79 +12211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12193,49 +12229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12325,9 +12325,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12377,35 +12406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12428,10 +12428,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12440,16 +12440,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12459,115 +12459,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13169,8 +13169,8 @@
   <sheetPr/>
   <dimension ref="B1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="3"/>
@@ -13839,7 +13839,9 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
-      <c r="B61" s="10"/>
+      <c r="B61" s="10">
+        <v>59</v>
+      </c>
       <c r="C61" s="76" t="s">
         <v>120</v>
       </c>
@@ -13849,7 +13851,7 @@
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="76" t="s">
         <v>122</v>
@@ -13859,7 +13861,9 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
-      <c r="B63" s="10"/>
+      <c r="B63" s="10">
+        <v>61</v>
+      </c>
       <c r="C63" s="76" t="s">
         <v>124</v>
       </c>
@@ -13869,7 +13873,7 @@
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" s="75" t="s">
         <v>126</v>
@@ -13880,7 +13884,7 @@
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C65" s="75" t="s">
         <v>128</v>
@@ -13891,7 +13895,7 @@
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C66" s="75" t="s">
         <v>130</v>
@@ -13902,7 +13906,7 @@
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C67" s="75" t="s">
         <v>132</v>
@@ -13913,7 +13917,7 @@
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C68" s="75" t="s">
         <v>134</v>
@@ -13924,7 +13928,7 @@
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C69" s="75" t="s">
         <v>136</v>
@@ -13935,7 +13939,7 @@
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="10">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C70" s="75" t="s">
         <v>138</v>
@@ -13946,7 +13950,7 @@
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>140</v>
@@ -13957,7 +13961,7 @@
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>142</v>
@@ -13968,7 +13972,7 @@
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C73" s="75" t="s">
         <v>144</v>
@@ -13979,7 +13983,7 @@
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C74" s="75" t="s">
         <v>146</v>
@@ -13990,7 +13994,7 @@
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C75" s="75" t="s">
         <v>148</v>
@@ -14001,7 +14005,7 @@
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="10">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C76" s="75" t="s">
         <v>150</v>
@@ -14012,7 +14016,7 @@
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C77" s="75" t="s">
         <v>152</v>
@@ -14023,7 +14027,7 @@
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="10">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C78" s="75" t="s">
         <v>154</v>
@@ -14034,7 +14038,7 @@
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79" s="75" t="s">
         <v>156</v>
@@ -14045,7 +14049,7 @@
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="75" t="s">
         <v>158</v>
@@ -14056,7 +14060,7 @@
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C81" s="75" t="s">
         <v>160</v>
@@ -14067,7 +14071,7 @@
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="10">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="75" t="s">
         <v>162</v>
@@ -14078,7 +14082,7 @@
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C83" s="75" t="s">
         <v>164</v>
@@ -14089,7 +14093,7 @@
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C84" s="75" t="s">
         <v>166</v>
@@ -14100,7 +14104,7 @@
     </row>
     <row r="85" customHeight="1" spans="2:4">
       <c r="B85" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C85" s="75" t="s">
         <v>168</v>
@@ -14111,7 +14115,7 @@
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>170</v>
@@ -14122,7 +14126,7 @@
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="10">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C87" s="75" t="s">
         <v>172</v>
@@ -14133,7 +14137,7 @@
     </row>
     <row r="88" customHeight="1" spans="2:4">
       <c r="B88" s="10">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>174</v>
@@ -14144,7 +14148,7 @@
     </row>
     <row r="89" customHeight="1" spans="2:4">
       <c r="B89" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C89" s="75" t="s">
         <v>176</v>
@@ -14155,7 +14159,7 @@
     </row>
     <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C90" s="75" t="s">
         <v>178</v>
@@ -34866,8 +34870,8 @@
   <sheetPr/>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
